--- a/links.xlsx
+++ b/links.xlsx
@@ -382,322 +382,322 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Asus ZenBook Flip 14 UM462DA AMD Ryzen 5 3500U Light Grey Touch Notebook</v>
+        <v>Chuwi HeroBook Pro Intel Celeron, 8GB RAM, 256GB SSD, 14 inch Laptop-Grey</v>
       </c>
       <c r="B1" t="str">
-        <v>৳ 70,202</v>
+        <v>৳ 24,000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Walton Prelude A9 Slim &amp; Slick, AMD A9-9425 3.10GHz up to 3.70GHz, 4GB DDR4 RAM, 240GB SATAIII M.2 2280 SSD</v>
+        <v>Dell Inspiron 15 3580 Intel Celeron 4205U 1.8GHz, 4GB, 500GB, 15.6 Inch Laptop</v>
       </c>
       <c r="B2" t="str">
-        <v>৳ 22,095</v>
+        <v>৳ 28,860</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ASUS TUF A15 FA506II Ryzen 5 4600H ,8GB DDR4 RAM ,512GB PCIe SSD,GTX 1650 Ti Graphics 144Hz 15.6" FHD Gaming Laptop</v>
+        <v>HP Probook 440 G6 Core i7 8th Gen (1TB HDD + 256GB SSD) 14.1 Inch HD Notebook PC</v>
       </c>
       <c r="B3" t="str">
-        <v>৳ 96,000</v>
+        <v>৳ 89,990</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Walton Laptop Tamarind Metal Body EX710G, 10th Gen Intel Core i7-10510U 1.8GHz up to 4.9GHz, 512GB SATAIII M.2 2280 SSD, 8GB DDR4 2666MHz RAM, 14 inch IPS Matte LCD</v>
+        <v>i-Life Zed Note, Intel Quad Core 1.8Ghz, 2GB, 32GB, Intel HD Graphics, 11.6 Inch Touch 360 Convertible Laptop</v>
       </c>
       <c r="B4" t="str">
-        <v>৳ 60,590</v>
+        <v>৳ 21,500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>CHUWI Ubook Inel Quad Core, 256GB SSD, 8GB RAM, 11.6 inch Touch Display Laptop</v>
+        <v>HP 15-da0405TU Intel Celeron Dual Core N4000 1.1GHz, 4GB, 1TB, 15.6 inch HD Laptop</v>
       </c>
       <c r="B5" t="str">
-        <v>৳ 29,500</v>
+        <v>৳ 28,000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>CHUWI HI 10 X Intel Celeron Processor, RAM 6 GB &amp; 128 GB ROM 10.1 inch Laptop</v>
+        <v>Aspire 3 A315-55G- 15.6″ FHD Laptop Rococo Red I5-10210U, 8GB, 512GB, MX230 2GB, W10</v>
       </c>
       <c r="B6" t="str">
-        <v>৳ 25,900</v>
+        <v>৳ 40,000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Walton Prelude N5000 Laptop - Quad Core 1.10GHz Processor - 4GB DDR4 RAM - 1 TB HDD - 14.0 High Definition (HD) LED Panel - Black</v>
+        <v>Ideapad 330 Celeron Dual Core 15.6 HD Laptop</v>
       </c>
       <c r="B7" t="str">
-        <v>৳ 23,850</v>
+        <v>৳ 20,000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>ASUS F571LI Intel Core i5 10th generation-10300H Processor (8M Cache, 2.5 GHz up to 4.5 GHz) 8GB DDR4 RAM + 1TB HDD Nvidia GTX 1650 Ti 4GB Graphics 15.6"(1920x1080) FHD LED-backlit Display Gaming Laptop</v>
+        <v>I-life ZEDAir Laptop, 2GB, 32GB eMMC, 14 Inch LED Display,Silver</v>
       </c>
       <c r="B8" t="str">
-        <v>৳ 91,000</v>
+        <v>৳ 17,000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Chuwi HeroBook Pro Intel Celeron, 8GB RAM, 256GB SSD, 14 inch Laptop-Grey</v>
+        <v>Acer Aspire E5-476 Core i3 8th Gen 14 HD Laptop</v>
       </c>
       <c r="B9" t="str">
-        <v>৳ 24,000</v>
+        <v>৳ 51,440</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Dell Inspiron 15 3580 Intel Celeron 4205U 1.8GHz, 4GB, 500GB, 15.6 Inch Laptop</v>
+        <v>Ideapad 330 Celeron Dual Core 15.6 HD Laptop</v>
       </c>
       <c r="B10" t="str">
-        <v>৳ 28,860</v>
+        <v>৳ 25,000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>HP Probook 440 G6 Core i7 8th Gen (1TB HDD + 256GB SSD) 14.1 Inch HD Notebook PC</v>
+        <v>Asus ROG Strix GL503GE Hero Edition 8th Gen Core i5 (4GB Graphics,1TB+128GB SSD) 15.6″ FHD</v>
       </c>
       <c r="B11" t="str">
-        <v>৳ 89,990</v>
+        <v>৳ 88,000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>i-Life Zed Note, Intel Quad Core 1.8Ghz, 2GB, 32GB, Intel HD Graphics, 11.6 Inch Touch 360 Convertible Laptop</v>
+        <v>Dell Vostro 3481 Intel Core i3-7020U 2.3GHz, 4GB, 1TB, 14 Inch</v>
       </c>
       <c r="B12" t="str">
-        <v>৳ 21,500</v>
+        <v>৳ 39,000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>HP 15-da0405TU Intel Celeron Dual Core N4000 1.1GHz, 4GB, 1TB, 15.6 inch HD Laptop</v>
+        <v>Asus ZenBook Flip 14 UM462DA AMD Ryzen 5 3500U Light Grey Touch Notebook</v>
       </c>
       <c r="B13" t="str">
-        <v>৳ 28,000</v>
+        <v>৳ 70,202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Aspire 3 A315-55G- 15.6″ FHD Laptop Rococo Red I5-10210U, 8GB, 512GB, MX230 2GB, W10</v>
+        <v>Asus Zenbook UX362FA core i7 8th Gen Laptop With Genuine Win 10</v>
       </c>
       <c r="B14" t="str">
-        <v>৳ 40,000</v>
+        <v>৳ 108,000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Ideapad 330 Celeron Dual Core 15.6 HD Laptop</v>
+        <v>Asus X543MA Celeron Dual Core 15.6" HD Laptop With Genuine Windows 10</v>
       </c>
       <c r="B15" t="str">
-        <v>৳ 20,000</v>
+        <v>৳ 31,440</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>I-life ZEDAir Laptop, 2GB, 32GB eMMC, 14 Inch LED Display,Silver</v>
+        <v>Asus X507UF Core i5 8th Gen 15.6 Inch, 4GB, 1TB 2 GB Graphics</v>
       </c>
       <c r="B16" t="str">
-        <v>৳ 17,000</v>
+        <v>৳ 53,760</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Acer Aspire E5-476 Core i3 8th Gen 14 HD Laptop</v>
+        <v>ASUS VivoBook 15 X512FJ 8th Gen Core i5 15.6 Full HD Laptop With NVIDIA MX230 2GB Graphics</v>
       </c>
       <c r="B17" t="str">
-        <v>৳ 51,440</v>
+        <v>৳ 68,740</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Ideapad 330 Celeron Dual Core 15.6 HD Laptop</v>
+        <v>Asus VivoBook 15 X512FA 4GB, 512SSD, Core i3 8th Gen 15.6</v>
       </c>
       <c r="B18" t="str">
-        <v>৳ 25,000</v>
+        <v>৳ 48,350</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Asus ROG Strix GL503GE Hero Edition 8th Gen Core i5 (4GB Graphics,1TB+128GB SSD) 15.6″ FHD</v>
+        <v>Asus VivoBook 14 X412FA Core i3 8th Gen 14 Full HD Laptop With Genuine Windows 10</v>
       </c>
       <c r="B19" t="str">
-        <v>৳ 88,000</v>
+        <v>৳ 49,590</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Dell Vostro 3481 Intel Core i3-7020U 2.3GHz, 4GB, 1TB, 14 Inch</v>
+        <v>HP Probook 450 G5 Core i5 8th Gen Business Series Laptop With Graphics</v>
       </c>
       <c r="B20" t="str">
-        <v>৳ 39,000</v>
+        <v>৳ 61,040</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Asus Zenbook UX362FA core i7 8th Gen Laptop With Genuine Win 10</v>
+        <v>DELL Inspiron 15 3580 Intel Pentium Gold 5405U 2.3GHz, 4GB, 500GB, 15.6 Inch</v>
       </c>
       <c r="B21" t="str">
-        <v>৳ 108,000</v>
+        <v>৳ 33,300</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Asus X543MA Celeron Dual Core 15.6" HD Laptop With Genuine Windows 10</v>
+        <v>Asus VivoBook 15 X512FL Core i5 8th Gen 15.6 Full HD Graphics Laptop With Genuine Windows 10</v>
       </c>
       <c r="B22" t="str">
-        <v>৳ 31,440</v>
+        <v>৳ 78,660</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Asus X507UF Core i5 8th Gen 15.6 Inch, 4GB, 1TB 2 GB Graphics</v>
+        <v>DELL Inspiron 14 3480 INTEL Pentium Gold 5405U 2.3GHz, 4GB, 500GB, 14 Inch Laptop</v>
       </c>
       <c r="B23" t="str">
-        <v>৳ 53,760</v>
+        <v>৳ 31,860</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>ASUS VivoBook 15 X512FJ 8th Gen Core i5 15.6 Full HD Laptop With NVIDIA MX230 2GB Graphics</v>
+        <v>MSI PS42 8M Core i7 8th Gen 14 FHD Gaming Laptop With Genuine Windows 10</v>
       </c>
       <c r="B24" t="str">
-        <v>৳ 68,740</v>
+        <v>৳ 97,200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Asus VivoBook 15 X512FA 4GB, 512SSD, Core i3 8th Gen 15.6</v>
+        <v>Asus X509UA Core i3 7th Gen 4GB 1TB 15.6 HD Display</v>
       </c>
       <c r="B25" t="str">
-        <v>৳ 48,350</v>
+        <v>৳ 40,900</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Asus VivoBook 14 X412FA Core i3 8th Gen 14 Full HD Laptop With Genuine Windows 10</v>
+        <v>MSI GL63 8SE Core i7 8th Gen 15.6 Full HD Gaming Laptop With Genuine Win 10</v>
       </c>
       <c r="B26" t="str">
-        <v>৳ 49,590</v>
+        <v>৳ 165,240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>HP Probook 450 G5 Core i5 8th Gen Business Series Laptop With Graphics</v>
+        <v>Asus E203MAH Celeron Dual Core 11.6" HD Laptop</v>
       </c>
       <c r="B27" t="str">
-        <v>৳ 61,040</v>
+        <v>৳ 27,500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>DELL Inspiron 15 3580 Intel Pentium Gold 5405U 2.3GHz, 4GB, 500GB, 15.6 Inch</v>
+        <v>MSI GS65 Stealth THIN 8SF Core i7 8th Gen 15.6'' Full HD Gaming Laptop With Genuine Win 10</v>
       </c>
       <c r="B28" t="str">
-        <v>৳ 33,300</v>
+        <v>৳ 250,260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Asus VivoBook 15 X512FL Core i5 8th Gen 15.6 Full HD Graphics Laptop With Genuine Windows 10</v>
+        <v>LENOVO IP S340 8th Gen i5 8265U (1.6 - 3.9 GHZ ),8GB DDR4 , HDD 1TB+ 128GB SSD,HD CAM, MX230 2GB</v>
       </c>
       <c r="B29" t="str">
-        <v>৳ 78,660</v>
+        <v>৳ 75,000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>DELL Inspiron 14 3480 INTEL Pentium Gold 5405U 2.3GHz, 4GB, 500GB, 14 Inch Laptop</v>
+        <v>HP EliteBook 840 G5 i5 8th Gen Graphics Ultrabook</v>
       </c>
       <c r="B30" t="str">
-        <v>৳ 31,860</v>
+        <v>৳ 96,120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>MSI PS42 8M Core i7 8th Gen 14 FHD Gaming Laptop With Genuine Windows 10</v>
+        <v>Asus VivoBook 15 X512FB Core i5 8th Gen 15.6 Full HD Laptop With Genuine Windows 10</v>
       </c>
       <c r="B31" t="str">
-        <v>৳ 97,200</v>
+        <v>৳ 68,500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Asus X509UA Core i3 7th Gen 4GB 1TB 15.6 HD Display</v>
+        <v>Dell Latitude 3490 Core i5 8th Gen 14 HD Laptop</v>
       </c>
       <c r="B32" t="str">
-        <v>৳ 40,900</v>
+        <v>৳ 73,530</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>MSI GL63 8SE Core i7 8th Gen 15.6 Full HD Gaming Laptop With Genuine Win 10</v>
+        <v>Dell Inspiron 15 5580 Core i7 Laptop with 8GB RAM, 1TB HDD</v>
       </c>
       <c r="B33" t="str">
-        <v>৳ 165,240</v>
+        <v>৳ 78,500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Asus E203MAH Celeron Dual Core 11.6" HD Laptop</v>
+        <v>Asus X509J/JA 10th Gen Intel Core i3 EJ050T (1.60GHz-3.90GHz, 4GB DDR4, 1TB, 1 x M.2 Slot) 15.6 Inch FHD (1920x1080) Display, Transparent Silver Notebook</v>
       </c>
       <c r="B34" t="str">
-        <v>৳ 27,500</v>
+        <v>৳ 41,500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>MSI GS65 Stealth THIN 8SF Core i7 8th Gen 15.6'' Full HD Gaming Laptop With Genuine Win 10</v>
+        <v>ASUS E203MAH N500 Pentium Quad Core 11.6" VivoBook With Genuine Win 10</v>
       </c>
       <c r="B35" t="str">
-        <v>৳ 250,260</v>
+        <v>৳ 30,500</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>LENOVO IP S340 8th Gen i5 8265U (1.6 - 3.9 GHZ ),8GB DDR4 , HDD 1TB+ 128GB SSD,HD CAM, MX230 2GB</v>
+        <v>Asus Tuf FX505GE Core i5 8th Gen 15.6 Full HD Gaming Laptop With Genuine Win 10</v>
       </c>
       <c r="B36" t="str">
-        <v>৳ 75,000</v>
+        <v>৳ 92,880</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>HP EliteBook 840 G5 i5 8th Gen Graphics Ultrabook</v>
+        <v>Acer Aspire E5-476 Core i3 8th Gen 14 HD Laptop</v>
       </c>
       <c r="B37" t="str">
-        <v>৳ 96,120</v>
+        <v>৳ 45,120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Asus VivoBook 15 X512FB Core i5 8th Gen 15.6 Full HD Laptop With Genuine Windows 10</v>
+        <v>Walton Prelude A9 Slim &amp; Slick, AMD A9-9425 3.10GHz up to 3.70GHz, 4GB DDR4 RAM, 240GB SATAIII M.2 2280 SSD</v>
       </c>
       <c r="B38" t="str">
-        <v>৳ 68,500</v>
+        <v>৳ 22,095</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Dell Latitude 3490 Core i5 8th Gen 14 HD Laptop</v>
+        <v>Asus ASUSPRO P1440FA 8th Gen Core i3 15.6 HD Laptop</v>
       </c>
       <c r="B39" t="str">
-        <v>৳ 73,530</v>
+        <v>৳ 46,510</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Dell Inspiron 15 5580 Core i7 Laptop with 8GB RAM, 1TB HDD</v>
+        <v>Lenovo IdeaPad 330-Intel CDC 3867U -1.8GHz</v>
       </c>
       <c r="B40" t="str">
-        <v>৳ 78,500</v>
+        <v>৳ 28,000</v>
       </c>
     </row>
   </sheetData>
